--- a/账号管理.xlsx
+++ b/账号管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SCP" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="381">
   <si>
     <t>121.199.31.234</t>
   </si>
@@ -2664,6 +2664,73 @@
   </si>
   <si>
     <t>修改爵位等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合创始分红比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>810</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>279</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>85%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>89%</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3183,6 +3250,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3206,9 +3276,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4280,7 +4347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A11:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E19" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -4383,7 +4450,7 @@
       <c r="D29" t="s">
         <v>326</v>
       </c>
-      <c r="E29" s="84" t="s">
+      <c r="E29" s="76" t="s">
         <v>378</v>
       </c>
     </row>
@@ -4397,7 +4464,7 @@
       <c r="D30" t="s">
         <v>329</v>
       </c>
-      <c r="E30" s="84" t="s">
+      <c r="E30" s="76" t="s">
         <v>378</v>
       </c>
     </row>
@@ -4445,7 +4512,7 @@
       <c r="D36" t="s">
         <v>324</v>
       </c>
-      <c r="E36" s="84" t="s">
+      <c r="E36" s="76" t="s">
         <v>378</v>
       </c>
     </row>
@@ -4495,7 +4562,7 @@
   <dimension ref="B7:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4530,6 +4597,9 @@
     <row r="14" spans="2:3">
       <c r="B14" t="s">
         <v>371</v>
+      </c>
+      <c r="C14" s="3">
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="2:3">
@@ -4842,8 +4912,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46:F49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4884,7 +4954,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="53.25" hidden="1" customHeight="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>56</v>
       </c>
       <c r="B2" t="s">
@@ -4907,7 +4977,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="53.25" hidden="1" customHeight="1">
-      <c r="A3" s="77"/>
+      <c r="A3" s="78"/>
       <c r="B3" t="s">
         <v>61</v>
       </c>
@@ -4928,7 +4998,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="27" hidden="1">
-      <c r="A4" s="77"/>
+      <c r="A4" s="78"/>
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -4949,7 +5019,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" hidden="1">
-      <c r="A5" s="77"/>
+      <c r="A5" s="78"/>
       <c r="B5" t="s">
         <v>218</v>
       </c>
@@ -4971,7 +5041,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="27" hidden="1">
-      <c r="A6" s="77"/>
+      <c r="A6" s="78"/>
       <c r="B6" t="s">
         <v>233</v>
       </c>
@@ -4995,7 +5065,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="54" hidden="1">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="78" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -5013,7 +5083,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="67.5" hidden="1">
-      <c r="A8" s="77"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="24" t="s">
         <v>107</v>
       </c>
@@ -5029,7 +5099,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" hidden="1">
-      <c r="A9" s="77"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="22" t="s">
         <v>109</v>
       </c>
@@ -5045,7 +5115,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="40.5">
-      <c r="A10" s="77"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="22" t="s">
         <v>111</v>
       </c>
@@ -5061,7 +5131,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="88.5" customHeight="1">
-      <c r="A11" s="77"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="73" t="s">
         <v>363</v>
       </c>
@@ -5078,7 +5148,7 @@
       <c r="G11" s="68"/>
     </row>
     <row r="12" spans="1:12" ht="54">
-      <c r="A12" s="77"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="22" t="s">
         <v>113</v>
       </c>
@@ -5094,7 +5164,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="14.25" hidden="1">
-      <c r="A13" s="77"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="27" t="s">
         <v>115</v>
       </c>
@@ -5112,7 +5182,7 @@
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" ht="27">
-      <c r="A14" s="77"/>
+      <c r="A14" s="78"/>
       <c r="B14" s="27" t="s">
         <v>117</v>
       </c>
@@ -5130,7 +5200,7 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" hidden="1">
-      <c r="A15" s="77"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="29" t="s">
         <v>119</v>
       </c>
@@ -5146,7 +5216,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="27" hidden="1">
-      <c r="A16" s="77"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="29" t="s">
         <v>121</v>
       </c>
@@ -5162,7 +5232,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" hidden="1">
-      <c r="A17" s="77"/>
+      <c r="A17" s="78"/>
       <c r="B17" s="29" t="s">
         <v>123</v>
       </c>
@@ -5178,7 +5248,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="56.25" customHeight="1">
-      <c r="A18" s="77"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="74" t="s">
         <v>123</v>
       </c>
@@ -5195,7 +5265,7 @@
       <c r="G18" s="68"/>
     </row>
     <row r="19" spans="1:10" ht="40.5" hidden="1">
-      <c r="A19" s="77"/>
+      <c r="A19" s="78"/>
       <c r="B19" s="29" t="s">
         <v>125</v>
       </c>
@@ -5211,7 +5281,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="54" hidden="1">
-      <c r="A20" s="77"/>
+      <c r="A20" s="78"/>
       <c r="B20" s="31" t="s">
         <v>127</v>
       </c>
@@ -5228,7 +5298,7 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" hidden="1">
-      <c r="A21" s="77"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="31" t="s">
         <v>129</v>
       </c>
@@ -5245,7 +5315,7 @@
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" hidden="1">
-      <c r="A22" s="77"/>
+      <c r="A22" s="78"/>
       <c r="B22" s="31" t="s">
         <v>131</v>
       </c>
@@ -5261,7 +5331,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" hidden="1">
-      <c r="A23" s="77"/>
+      <c r="A23" s="78"/>
       <c r="B23" s="31" t="s">
         <v>131</v>
       </c>
@@ -5277,7 +5347,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="27" hidden="1">
-      <c r="A24" s="77"/>
+      <c r="A24" s="78"/>
       <c r="B24" s="31" t="s">
         <v>131</v>
       </c>
@@ -5293,7 +5363,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="27">
-      <c r="A25" s="77"/>
+      <c r="A25" s="78"/>
       <c r="B25" s="33" t="s">
         <v>135</v>
       </c>
@@ -5306,7 +5376,7 @@
       <c r="F25" s="55"/>
     </row>
     <row r="26" spans="1:10" hidden="1">
-      <c r="A26" s="77"/>
+      <c r="A26" s="78"/>
       <c r="B26" s="34" t="s">
         <v>137</v>
       </c>
@@ -5322,7 +5392,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" hidden="1">
-      <c r="A27" s="77"/>
+      <c r="A27" s="78"/>
       <c r="B27" s="34" t="s">
         <v>139</v>
       </c>
@@ -5338,7 +5408,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="96" hidden="1" customHeight="1">
-      <c r="A28" s="77"/>
+      <c r="A28" s="78"/>
       <c r="B28" t="s">
         <v>66</v>
       </c>
@@ -5360,7 +5430,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="43.5" hidden="1" customHeight="1">
-      <c r="A29" s="77"/>
+      <c r="A29" s="78"/>
       <c r="B29" s="34" t="s">
         <v>223</v>
       </c>
@@ -5378,7 +5448,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="40.5" hidden="1">
-      <c r="A30" s="77"/>
+      <c r="A30" s="78"/>
       <c r="B30" s="34" t="s">
         <v>216</v>
       </c>
@@ -5394,7 +5464,7 @@
       <c r="F30" s="55"/>
     </row>
     <row r="31" spans="1:10" ht="56.25" hidden="1">
-      <c r="A31" s="77"/>
+      <c r="A31" s="78"/>
       <c r="B31" s="21" t="s">
         <v>102</v>
       </c>
@@ -5413,7 +5483,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="40.5" hidden="1">
-      <c r="A32" s="77"/>
+      <c r="A32" s="78"/>
       <c r="B32" s="71" t="s">
         <v>346</v>
       </c>
@@ -5432,7 +5502,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="40.5" hidden="1">
-      <c r="A33" s="77"/>
+      <c r="A33" s="78"/>
       <c r="B33" s="70" t="s">
         <v>348</v>
       </c>
@@ -5451,7 +5521,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="27" hidden="1">
-      <c r="A34" s="77"/>
+      <c r="A34" s="78"/>
       <c r="B34" s="71" t="s">
         <v>350</v>
       </c>
@@ -5470,7 +5540,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="27" hidden="1">
-      <c r="A35" s="77"/>
+      <c r="A35" s="78"/>
       <c r="B35" s="71" t="s">
         <v>352</v>
       </c>
@@ -5489,7 +5559,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="27" hidden="1">
-      <c r="A36" s="77"/>
+      <c r="A36" s="78"/>
       <c r="B36" s="71" t="s">
         <v>354</v>
       </c>
@@ -5508,7 +5578,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="14.25">
-      <c r="A37" s="77"/>
+      <c r="A37" s="78"/>
       <c r="B37" s="21"/>
       <c r="C37" s="57"/>
       <c r="D37" s="66"/>
@@ -5516,7 +5586,7 @@
       <c r="G37" s="67"/>
     </row>
     <row r="38" spans="1:13" ht="14.25">
-      <c r="A38" s="77"/>
+      <c r="A38" s="78"/>
       <c r="B38" s="21"/>
       <c r="C38" s="57"/>
       <c r="D38" s="66"/>
@@ -5524,7 +5594,7 @@
       <c r="G38" s="67"/>
     </row>
     <row r="39" spans="1:13" ht="14.25">
-      <c r="A39" s="77"/>
+      <c r="A39" s="78"/>
       <c r="B39" s="21"/>
       <c r="C39" s="57"/>
       <c r="D39" s="66"/>
@@ -5532,7 +5602,7 @@
       <c r="G39" s="67"/>
     </row>
     <row r="40" spans="1:13" ht="14.25">
-      <c r="A40" s="77"/>
+      <c r="A40" s="78"/>
       <c r="B40" s="21"/>
       <c r="C40" s="57"/>
       <c r="D40" s="66"/>
@@ -5540,7 +5610,7 @@
       <c r="G40" s="67"/>
     </row>
     <row r="41" spans="1:13" ht="14.25">
-      <c r="A41" s="77"/>
+      <c r="A41" s="78"/>
       <c r="B41" s="21"/>
       <c r="C41" s="57"/>
       <c r="D41" s="66"/>
@@ -5548,15 +5618,27 @@
       <c r="G41" s="67"/>
     </row>
     <row r="42" spans="1:13" ht="14.25">
-      <c r="A42" s="77"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="66"/>
+      <c r="A42" s="78"/>
+      <c r="B42" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="D42" s="66">
+        <v>42563</v>
+      </c>
+      <c r="E42" t="s">
+        <v>242</v>
+      </c>
       <c r="F42" s="67"/>
       <c r="G42" s="67"/>
+      <c r="H42" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="43" spans="1:13" ht="93.75" hidden="1" customHeight="1">
-      <c r="A43" s="77"/>
+      <c r="A43" s="78"/>
       <c r="B43" s="33" t="s">
         <v>241</v>
       </c>
@@ -5580,7 +5662,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="30" hidden="1" customHeight="1">
-      <c r="A44" s="77"/>
+      <c r="A44" s="78"/>
       <c r="B44" s="33" t="s">
         <v>247</v>
       </c>
@@ -5604,7 +5686,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="64.5" hidden="1" customHeight="1">
-      <c r="A45" s="77"/>
+      <c r="A45" s="78"/>
       <c r="B45" s="33" t="s">
         <v>248</v>
       </c>
@@ -5626,24 +5708,24 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="96.75" hidden="1" customHeight="1">
-      <c r="A46" s="77"/>
-      <c r="B46" s="79" t="s">
+      <c r="A46" s="78"/>
+      <c r="B46" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="C46" s="78" t="s">
+      <c r="C46" s="79" t="s">
         <v>294</v>
       </c>
-      <c r="D46" s="76">
+      <c r="D46" s="77">
         <v>42544</v>
       </c>
       <c r="E46" t="s">
         <v>242</v>
       </c>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76">
+      <c r="F46" s="77"/>
+      <c r="G46" s="77">
         <v>42544</v>
       </c>
-      <c r="H46" s="77" t="s">
+      <c r="H46" s="78" t="s">
         <v>243</v>
       </c>
       <c r="I46" s="3">
@@ -5660,16 +5742,16 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="25.5" hidden="1" customHeight="1">
-      <c r="A47" s="77"/>
-      <c r="B47" s="79"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="77" t="s">
+      <c r="A47" s="78"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="78"/>
       <c r="I47" s="3">
         <v>802.86</v>
       </c>
@@ -5681,14 +5763,14 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A48" s="77"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="77"/>
+      <c r="A48" s="78"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="78"/>
       <c r="I48" s="3">
         <v>802.86</v>
       </c>
@@ -5700,14 +5782,14 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="93.75" customHeight="1">
-      <c r="A49" s="77"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="77"/>
+      <c r="A49" s="78"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="78"/>
       <c r="I49" s="3">
         <v>3989</v>
       </c>
@@ -5719,7 +5801,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="27">
-      <c r="A50" s="77" t="s">
+      <c r="A50" s="78" t="s">
         <v>221</v>
       </c>
       <c r="B50" s="34" t="s">
@@ -5736,7 +5818,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="27">
-      <c r="A51" s="77"/>
+      <c r="A51" s="78"/>
       <c r="B51" s="34" t="s">
         <v>226</v>
       </c>
@@ -5751,7 +5833,7 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="77"/>
+      <c r="A52" s="78"/>
       <c r="B52" s="34" t="s">
         <v>228</v>
       </c>
@@ -5766,7 +5848,7 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="77"/>
+      <c r="A53" s="78"/>
       <c r="B53" s="34" t="s">
         <v>230</v>
       </c>
@@ -5781,32 +5863,32 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="77"/>
+      <c r="A54" s="78"/>
       <c r="B54" s="34"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="77"/>
+      <c r="A55" s="78"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="77"/>
+      <c r="A56" s="78"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="77"/>
+      <c r="A57" s="78"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="77"/>
+      <c r="A58" s="78"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="77"/>
+      <c r="A59" s="78"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="77"/>
+      <c r="A60" s="78"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="77"/>
+      <c r="A61" s="78"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="77" t="s">
+      <c r="A62" s="78" t="s">
         <v>296</v>
       </c>
       <c r="B62" t="s">
@@ -5823,7 +5905,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="40.5">
-      <c r="A63" s="77"/>
+      <c r="A63" s="78"/>
       <c r="B63" t="s">
         <v>299</v>
       </c>
@@ -5838,7 +5920,7 @@
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="77"/>
+      <c r="A64" s="78"/>
       <c r="B64" t="s">
         <v>301</v>
       </c>
@@ -5853,7 +5935,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="27">
-      <c r="A65" s="77"/>
+      <c r="A65" s="78"/>
       <c r="B65" t="s">
         <v>303</v>
       </c>
@@ -5868,7 +5950,7 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="77"/>
+      <c r="A66" s="78"/>
       <c r="B66" t="s">
         <v>305</v>
       </c>
@@ -5883,7 +5965,7 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="77"/>
+      <c r="A67" s="78"/>
       <c r="B67" t="s">
         <v>355</v>
       </c>
@@ -5898,7 +5980,7 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="77"/>
+      <c r="A68" s="78"/>
       <c r="B68" t="s">
         <v>357</v>
       </c>
@@ -5913,7 +5995,7 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="77"/>
+      <c r="A69" s="78"/>
       <c r="B69" t="s">
         <v>359</v>
       </c>
@@ -5928,37 +6010,37 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="77"/>
+      <c r="A70" s="78"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="77"/>
+      <c r="A71" s="78"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="77"/>
+      <c r="A72" s="78"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="77"/>
+      <c r="A73" s="78"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="77"/>
+      <c r="A74" s="78"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="77"/>
+      <c r="A75" s="78"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="77"/>
+      <c r="A76" s="78"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="77"/>
+      <c r="A77" s="78"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="77"/>
+      <c r="A78" s="78"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="77"/>
+      <c r="A79" s="78"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="77"/>
+      <c r="A80" s="78"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H80">
@@ -6151,7 +6233,7 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="27">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -6179,7 +6261,7 @@
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:11" ht="81">
-      <c r="A3" s="80"/>
+      <c r="A3" s="81"/>
       <c r="B3" s="8" t="s">
         <v>52</v>
       </c>
@@ -6205,7 +6287,7 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="27">
-      <c r="A4" s="80"/>
+      <c r="A4" s="81"/>
       <c r="B4" s="8" t="s">
         <v>67</v>
       </c>
@@ -6231,7 +6313,7 @@
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="27">
-      <c r="A5" s="80"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="8" t="s">
         <v>68</v>
       </c>
@@ -6257,7 +6339,7 @@
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="80"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="8" t="s">
         <v>70</v>
       </c>
@@ -6283,7 +6365,7 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:11" ht="67.5">
-      <c r="A7" s="80"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
         <v>72</v>
@@ -6307,7 +6389,7 @@
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="80"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9" t="s">
         <v>73</v>
@@ -6331,7 +6413,7 @@
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="80"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="13"/>
@@ -6343,7 +6425,7 @@
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="80"/>
+      <c r="A10" s="81"/>
       <c r="B10" s="8" t="s">
         <v>335</v>
       </c>
@@ -6361,7 +6443,7 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="80"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="13"/>
@@ -6373,7 +6455,7 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="80"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="13"/>
@@ -6385,12 +6467,12 @@
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="80"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="8"/>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="82" t="s">
         <v>198</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -6414,7 +6496,7 @@
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="82"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="8" t="s">
         <v>201</v>
       </c>
@@ -6436,7 +6518,7 @@
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="82"/>
+      <c r="A16" s="83"/>
       <c r="B16" s="8" t="s">
         <v>200</v>
       </c>
@@ -6458,7 +6540,7 @@
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="82"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="8" t="s">
         <v>202</v>
       </c>
@@ -6480,7 +6562,7 @@
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="82"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="8" t="s">
         <v>203</v>
       </c>
@@ -6502,7 +6584,7 @@
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="83"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="8" t="s">
         <v>204</v>
       </c>

--- a/账号管理.xlsx
+++ b/账号管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="SCP" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="394">
   <si>
     <t>121.199.31.234</t>
   </si>
@@ -2732,6 +2732,47 @@
       <t>89%</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fxx.xinykj.com/pay/wxpay2/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456789123456789qwertyuioplkjh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城后台管理：</t>
+  </si>
+  <si>
+    <t>账号：爱艾灸</t>
+  </si>
+  <si>
+    <t>密码：123456</t>
+  </si>
+  <si>
+    <t>微信公众</t>
+  </si>
+  <si>
+    <t>账号：</t>
+  </si>
+  <si>
+    <t>137845659@qq.com</t>
+  </si>
+  <si>
+    <t>密码：</t>
+  </si>
+  <si>
+    <t>aajp70093636</t>
+  </si>
+  <si>
+    <t>微信商户号：</t>
+  </si>
+  <si>
+    <t>账号：1245556702@1245556702</t>
+  </si>
+  <si>
+    <t>密码：093636</t>
   </si>
 </sst>
 </file>
@@ -3253,9 +3294,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3263,6 +3301,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4559,10 +4600,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B7:C15"/>
+  <dimension ref="B7:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4607,12 +4648,64 @@
         <v>372</v>
       </c>
     </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>387</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>389</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>393</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4621,7 +4714,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4852,7 +4945,7 @@
         <v>286</v>
       </c>
       <c r="E15" t="s">
-        <v>245</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4912,7 +5005,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
@@ -4954,7 +5047,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="53.25" hidden="1" customHeight="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="77" t="s">
         <v>56</v>
       </c>
       <c r="B2" t="s">
@@ -4977,7 +5070,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="53.25" hidden="1" customHeight="1">
-      <c r="A3" s="78"/>
+      <c r="A3" s="77"/>
       <c r="B3" t="s">
         <v>61</v>
       </c>
@@ -4998,7 +5091,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="27" hidden="1">
-      <c r="A4" s="78"/>
+      <c r="A4" s="77"/>
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -5019,7 +5112,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" hidden="1">
-      <c r="A5" s="78"/>
+      <c r="A5" s="77"/>
       <c r="B5" t="s">
         <v>218</v>
       </c>
@@ -5041,7 +5134,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="27" hidden="1">
-      <c r="A6" s="78"/>
+      <c r="A6" s="77"/>
       <c r="B6" t="s">
         <v>233</v>
       </c>
@@ -5065,7 +5158,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="54" hidden="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="77" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -5083,7 +5176,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="67.5" hidden="1">
-      <c r="A8" s="78"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="24" t="s">
         <v>107</v>
       </c>
@@ -5099,7 +5192,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" hidden="1">
-      <c r="A9" s="78"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="22" t="s">
         <v>109</v>
       </c>
@@ -5115,7 +5208,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="40.5">
-      <c r="A10" s="78"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="22" t="s">
         <v>111</v>
       </c>
@@ -5131,7 +5224,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="88.5" customHeight="1">
-      <c r="A11" s="78"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="73" t="s">
         <v>363</v>
       </c>
@@ -5148,7 +5241,7 @@
       <c r="G11" s="68"/>
     </row>
     <row r="12" spans="1:12" ht="54">
-      <c r="A12" s="78"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="22" t="s">
         <v>113</v>
       </c>
@@ -5164,7 +5257,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="14.25" hidden="1">
-      <c r="A13" s="78"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="27" t="s">
         <v>115</v>
       </c>
@@ -5182,7 +5275,7 @@
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" ht="27">
-      <c r="A14" s="78"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="27" t="s">
         <v>117</v>
       </c>
@@ -5200,7 +5293,7 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" hidden="1">
-      <c r="A15" s="78"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="29" t="s">
         <v>119</v>
       </c>
@@ -5216,7 +5309,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="27" hidden="1">
-      <c r="A16" s="78"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="29" t="s">
         <v>121</v>
       </c>
@@ -5232,7 +5325,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" hidden="1">
-      <c r="A17" s="78"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="29" t="s">
         <v>123</v>
       </c>
@@ -5248,7 +5341,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="56.25" customHeight="1">
-      <c r="A18" s="78"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="74" t="s">
         <v>123</v>
       </c>
@@ -5265,7 +5358,7 @@
       <c r="G18" s="68"/>
     </row>
     <row r="19" spans="1:10" ht="40.5" hidden="1">
-      <c r="A19" s="78"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="29" t="s">
         <v>125</v>
       </c>
@@ -5281,7 +5374,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="54" hidden="1">
-      <c r="A20" s="78"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="31" t="s">
         <v>127</v>
       </c>
@@ -5298,7 +5391,7 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" hidden="1">
-      <c r="A21" s="78"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="31" t="s">
         <v>129</v>
       </c>
@@ -5315,7 +5408,7 @@
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" hidden="1">
-      <c r="A22" s="78"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="31" t="s">
         <v>131</v>
       </c>
@@ -5331,7 +5424,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" hidden="1">
-      <c r="A23" s="78"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="31" t="s">
         <v>131</v>
       </c>
@@ -5347,7 +5440,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="27" hidden="1">
-      <c r="A24" s="78"/>
+      <c r="A24" s="77"/>
       <c r="B24" s="31" t="s">
         <v>131</v>
       </c>
@@ -5363,7 +5456,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="27">
-      <c r="A25" s="78"/>
+      <c r="A25" s="77"/>
       <c r="B25" s="33" t="s">
         <v>135</v>
       </c>
@@ -5376,7 +5469,7 @@
       <c r="F25" s="55"/>
     </row>
     <row r="26" spans="1:10" hidden="1">
-      <c r="A26" s="78"/>
+      <c r="A26" s="77"/>
       <c r="B26" s="34" t="s">
         <v>137</v>
       </c>
@@ -5392,7 +5485,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" hidden="1">
-      <c r="A27" s="78"/>
+      <c r="A27" s="77"/>
       <c r="B27" s="34" t="s">
         <v>139</v>
       </c>
@@ -5408,7 +5501,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="96" hidden="1" customHeight="1">
-      <c r="A28" s="78"/>
+      <c r="A28" s="77"/>
       <c r="B28" t="s">
         <v>66</v>
       </c>
@@ -5430,7 +5523,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="43.5" hidden="1" customHeight="1">
-      <c r="A29" s="78"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="34" t="s">
         <v>223</v>
       </c>
@@ -5448,7 +5541,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="40.5" hidden="1">
-      <c r="A30" s="78"/>
+      <c r="A30" s="77"/>
       <c r="B30" s="34" t="s">
         <v>216</v>
       </c>
@@ -5464,7 +5557,7 @@
       <c r="F30" s="55"/>
     </row>
     <row r="31" spans="1:10" ht="56.25" hidden="1">
-      <c r="A31" s="78"/>
+      <c r="A31" s="77"/>
       <c r="B31" s="21" t="s">
         <v>102</v>
       </c>
@@ -5483,7 +5576,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="40.5" hidden="1">
-      <c r="A32" s="78"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="71" t="s">
         <v>346</v>
       </c>
@@ -5502,7 +5595,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="40.5" hidden="1">
-      <c r="A33" s="78"/>
+      <c r="A33" s="77"/>
       <c r="B33" s="70" t="s">
         <v>348</v>
       </c>
@@ -5521,7 +5614,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="27" hidden="1">
-      <c r="A34" s="78"/>
+      <c r="A34" s="77"/>
       <c r="B34" s="71" t="s">
         <v>350</v>
       </c>
@@ -5540,7 +5633,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="27" hidden="1">
-      <c r="A35" s="78"/>
+      <c r="A35" s="77"/>
       <c r="B35" s="71" t="s">
         <v>352</v>
       </c>
@@ -5559,7 +5652,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="27" hidden="1">
-      <c r="A36" s="78"/>
+      <c r="A36" s="77"/>
       <c r="B36" s="71" t="s">
         <v>354</v>
       </c>
@@ -5578,7 +5671,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="14.25">
-      <c r="A37" s="78"/>
+      <c r="A37" s="77"/>
       <c r="B37" s="21"/>
       <c r="C37" s="57"/>
       <c r="D37" s="66"/>
@@ -5586,7 +5679,7 @@
       <c r="G37" s="67"/>
     </row>
     <row r="38" spans="1:13" ht="14.25">
-      <c r="A38" s="78"/>
+      <c r="A38" s="77"/>
       <c r="B38" s="21"/>
       <c r="C38" s="57"/>
       <c r="D38" s="66"/>
@@ -5594,7 +5687,7 @@
       <c r="G38" s="67"/>
     </row>
     <row r="39" spans="1:13" ht="14.25">
-      <c r="A39" s="78"/>
+      <c r="A39" s="77"/>
       <c r="B39" s="21"/>
       <c r="C39" s="57"/>
       <c r="D39" s="66"/>
@@ -5602,7 +5695,7 @@
       <c r="G39" s="67"/>
     </row>
     <row r="40" spans="1:13" ht="14.25">
-      <c r="A40" s="78"/>
+      <c r="A40" s="77"/>
       <c r="B40" s="21"/>
       <c r="C40" s="57"/>
       <c r="D40" s="66"/>
@@ -5610,7 +5703,7 @@
       <c r="G40" s="67"/>
     </row>
     <row r="41" spans="1:13" ht="14.25">
-      <c r="A41" s="78"/>
+      <c r="A41" s="77"/>
       <c r="B41" s="21"/>
       <c r="C41" s="57"/>
       <c r="D41" s="66"/>
@@ -5618,7 +5711,7 @@
       <c r="G41" s="67"/>
     </row>
     <row r="42" spans="1:13" ht="14.25">
-      <c r="A42" s="78"/>
+      <c r="A42" s="77"/>
       <c r="B42" s="21" t="s">
         <v>379</v>
       </c>
@@ -5638,7 +5731,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="93.75" hidden="1" customHeight="1">
-      <c r="A43" s="78"/>
+      <c r="A43" s="77"/>
       <c r="B43" s="33" t="s">
         <v>241</v>
       </c>
@@ -5662,7 +5755,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="30" hidden="1" customHeight="1">
-      <c r="A44" s="78"/>
+      <c r="A44" s="77"/>
       <c r="B44" s="33" t="s">
         <v>247</v>
       </c>
@@ -5686,7 +5779,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="64.5" hidden="1" customHeight="1">
-      <c r="A45" s="78"/>
+      <c r="A45" s="77"/>
       <c r="B45" s="33" t="s">
         <v>248</v>
       </c>
@@ -5708,24 +5801,24 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="96.75" hidden="1" customHeight="1">
-      <c r="A46" s="78"/>
-      <c r="B46" s="80" t="s">
+      <c r="A46" s="77"/>
+      <c r="B46" s="79" t="s">
         <v>293</v>
       </c>
-      <c r="C46" s="79" t="s">
+      <c r="C46" s="78" t="s">
         <v>294</v>
       </c>
-      <c r="D46" s="77">
+      <c r="D46" s="80">
         <v>42544</v>
       </c>
       <c r="E46" t="s">
         <v>242</v>
       </c>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77">
+      <c r="F46" s="80"/>
+      <c r="G46" s="80">
         <v>42544</v>
       </c>
-      <c r="H46" s="78" t="s">
+      <c r="H46" s="77" t="s">
         <v>243</v>
       </c>
       <c r="I46" s="3">
@@ -5742,16 +5835,16 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="25.5" hidden="1" customHeight="1">
-      <c r="A47" s="78"/>
-      <c r="B47" s="80"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="78" t="s">
+      <c r="A47" s="77"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="78"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="77"/>
       <c r="I47" s="3">
         <v>802.86</v>
       </c>
@@ -5763,14 +5856,14 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A48" s="78"/>
-      <c r="B48" s="80"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="78"/>
+      <c r="A48" s="77"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="77"/>
       <c r="I48" s="3">
         <v>802.86</v>
       </c>
@@ -5782,14 +5875,14 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="93.75" customHeight="1">
-      <c r="A49" s="78"/>
-      <c r="B49" s="80"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="78"/>
+      <c r="A49" s="77"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="77"/>
       <c r="I49" s="3">
         <v>3989</v>
       </c>
@@ -5801,7 +5894,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="27">
-      <c r="A50" s="78" t="s">
+      <c r="A50" s="77" t="s">
         <v>221</v>
       </c>
       <c r="B50" s="34" t="s">
@@ -5818,7 +5911,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="27">
-      <c r="A51" s="78"/>
+      <c r="A51" s="77"/>
       <c r="B51" s="34" t="s">
         <v>226</v>
       </c>
@@ -5833,7 +5926,7 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="78"/>
+      <c r="A52" s="77"/>
       <c r="B52" s="34" t="s">
         <v>228</v>
       </c>
@@ -5848,7 +5941,7 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="78"/>
+      <c r="A53" s="77"/>
       <c r="B53" s="34" t="s">
         <v>230</v>
       </c>
@@ -5863,32 +5956,32 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="78"/>
+      <c r="A54" s="77"/>
       <c r="B54" s="34"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="78"/>
+      <c r="A55" s="77"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="78"/>
+      <c r="A56" s="77"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="78"/>
+      <c r="A57" s="77"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="78"/>
+      <c r="A58" s="77"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="78"/>
+      <c r="A59" s="77"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="78"/>
+      <c r="A60" s="77"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="78"/>
+      <c r="A61" s="77"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="78" t="s">
+      <c r="A62" s="77" t="s">
         <v>296</v>
       </c>
       <c r="B62" t="s">
@@ -5905,7 +5998,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="40.5">
-      <c r="A63" s="78"/>
+      <c r="A63" s="77"/>
       <c r="B63" t="s">
         <v>299</v>
       </c>
@@ -5920,7 +6013,7 @@
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="78"/>
+      <c r="A64" s="77"/>
       <c r="B64" t="s">
         <v>301</v>
       </c>
@@ -5935,7 +6028,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="27">
-      <c r="A65" s="78"/>
+      <c r="A65" s="77"/>
       <c r="B65" t="s">
         <v>303</v>
       </c>
@@ -5950,7 +6043,7 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="78"/>
+      <c r="A66" s="77"/>
       <c r="B66" t="s">
         <v>305</v>
       </c>
@@ -5965,7 +6058,7 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="78"/>
+      <c r="A67" s="77"/>
       <c r="B67" t="s">
         <v>355</v>
       </c>
@@ -5980,7 +6073,7 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="78"/>
+      <c r="A68" s="77"/>
       <c r="B68" t="s">
         <v>357</v>
       </c>
@@ -5995,7 +6088,7 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="78"/>
+      <c r="A69" s="77"/>
       <c r="B69" t="s">
         <v>359</v>
       </c>
@@ -6010,37 +6103,37 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="78"/>
+      <c r="A70" s="77"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="78"/>
+      <c r="A71" s="77"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="78"/>
+      <c r="A72" s="77"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="78"/>
+      <c r="A73" s="77"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="78"/>
+      <c r="A74" s="77"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="78"/>
+      <c r="A75" s="77"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="78"/>
+      <c r="A76" s="77"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="78"/>
+      <c r="A77" s="77"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="78"/>
+      <c r="A78" s="77"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="78"/>
+      <c r="A79" s="77"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="78"/>
+      <c r="A80" s="77"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H80">
@@ -6053,17 +6146,17 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="11">
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="E47:E49"/>
     <mergeCell ref="A62:A80"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A50:A61"/>
     <mergeCell ref="A7:A49"/>
     <mergeCell ref="C46:C49"/>
     <mergeCell ref="B46:B49"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="E47:E49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -7304,10 +7397,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:R299"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="P272" sqref="P272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7328,6 +7421,26 @@
     <row r="46" spans="18:18">
       <c r="R46" t="s">
         <v>367</v>
+      </c>
+    </row>
+    <row r="263" spans="16:17">
+      <c r="Q263" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="272" spans="16:17">
+      <c r="P272" t="e">
+        <f>len</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q272" t="e">
+        <f>len</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="299" spans="9:9">
+      <c r="I299" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/账号管理.xlsx
+++ b/账号管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="SCP" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="394">
   <si>
     <t>121.199.31.234</t>
   </si>
@@ -2665,6 +2665,114 @@
   <si>
     <t>修改爵位等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合创始分红比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>810</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>279</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>85%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>89%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fxx.xinykj.com/pay/wxpay2/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456789123456789qwertyuioplkjh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城后台管理：</t>
+  </si>
+  <si>
+    <t>账号：爱艾灸</t>
+  </si>
+  <si>
+    <t>密码：123456</t>
+  </si>
+  <si>
+    <t>微信公众</t>
+  </si>
+  <si>
+    <t>账号：</t>
+  </si>
+  <si>
+    <t>137845659@qq.com</t>
+  </si>
+  <si>
+    <t>密码：</t>
+  </si>
+  <si>
+    <t>aajp70093636</t>
+  </si>
+  <si>
+    <t>微信商户号：</t>
+  </si>
+  <si>
+    <t>账号：1245556702@1245556702</t>
+  </si>
+  <si>
+    <t>密码：093636</t>
   </si>
 </sst>
 </file>
@@ -3183,18 +3291,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3206,9 +3317,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4280,7 +4388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A11:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E19" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -4383,7 +4491,7 @@
       <c r="D29" t="s">
         <v>326</v>
       </c>
-      <c r="E29" s="84" t="s">
+      <c r="E29" s="76" t="s">
         <v>378</v>
       </c>
     </row>
@@ -4397,7 +4505,7 @@
       <c r="D30" t="s">
         <v>329</v>
       </c>
-      <c r="E30" s="84" t="s">
+      <c r="E30" s="76" t="s">
         <v>378</v>
       </c>
     </row>
@@ -4445,7 +4553,7 @@
       <c r="D36" t="s">
         <v>324</v>
       </c>
-      <c r="E36" s="84" t="s">
+      <c r="E36" s="76" t="s">
         <v>378</v>
       </c>
     </row>
@@ -4492,10 +4600,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B7:C15"/>
+  <dimension ref="B7:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4531,10 +4639,64 @@
       <c r="B14" t="s">
         <v>371</v>
       </c>
+      <c r="C14" s="3">
+        <v>123</v>
+      </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
         <v>372</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>387</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>389</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -4543,6 +4705,7 @@
     <hyperlink ref="C7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4551,7 +4714,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4782,7 +4945,7 @@
         <v>286</v>
       </c>
       <c r="E15" t="s">
-        <v>245</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4842,8 +5005,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46:F49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5549,11 +5712,23 @@
     </row>
     <row r="42" spans="1:13" ht="14.25">
       <c r="A42" s="77"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="66"/>
+      <c r="B42" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="D42" s="66">
+        <v>42563</v>
+      </c>
+      <c r="E42" t="s">
+        <v>242</v>
+      </c>
       <c r="F42" s="67"/>
       <c r="G42" s="67"/>
+      <c r="H42" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="43" spans="1:13" ht="93.75" hidden="1" customHeight="1">
       <c r="A43" s="77"/>
@@ -5633,14 +5808,14 @@
       <c r="C46" s="78" t="s">
         <v>294</v>
       </c>
-      <c r="D46" s="76">
+      <c r="D46" s="80">
         <v>42544</v>
       </c>
       <c r="E46" t="s">
         <v>242</v>
       </c>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76">
+      <c r="F46" s="80"/>
+      <c r="G46" s="80">
         <v>42544</v>
       </c>
       <c r="H46" s="77" t="s">
@@ -5663,12 +5838,12 @@
       <c r="A47" s="77"/>
       <c r="B47" s="79"/>
       <c r="C47" s="78"/>
-      <c r="D47" s="76"/>
+      <c r="D47" s="80"/>
       <c r="E47" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
       <c r="H47" s="77"/>
       <c r="I47" s="3">
         <v>802.86</v>
@@ -5684,10 +5859,10 @@
       <c r="A48" s="77"/>
       <c r="B48" s="79"/>
       <c r="C48" s="78"/>
-      <c r="D48" s="76"/>
+      <c r="D48" s="80"/>
       <c r="E48" s="77"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="80"/>
       <c r="H48" s="77"/>
       <c r="I48" s="3">
         <v>802.86</v>
@@ -5703,10 +5878,10 @@
       <c r="A49" s="77"/>
       <c r="B49" s="79"/>
       <c r="C49" s="78"/>
-      <c r="D49" s="76"/>
+      <c r="D49" s="80"/>
       <c r="E49" s="77"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
       <c r="H49" s="77"/>
       <c r="I49" s="3">
         <v>3989</v>
@@ -5971,17 +6146,17 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="11">
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="E47:E49"/>
     <mergeCell ref="A62:A80"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A50:A61"/>
     <mergeCell ref="A7:A49"/>
     <mergeCell ref="C46:C49"/>
     <mergeCell ref="B46:B49"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="E47:E49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -6151,7 +6326,7 @@
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="27">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -6179,7 +6354,7 @@
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:11" ht="81">
-      <c r="A3" s="80"/>
+      <c r="A3" s="81"/>
       <c r="B3" s="8" t="s">
         <v>52</v>
       </c>
@@ -6205,7 +6380,7 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="27">
-      <c r="A4" s="80"/>
+      <c r="A4" s="81"/>
       <c r="B4" s="8" t="s">
         <v>67</v>
       </c>
@@ -6231,7 +6406,7 @@
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="27">
-      <c r="A5" s="80"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="8" t="s">
         <v>68</v>
       </c>
@@ -6257,7 +6432,7 @@
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="80"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="8" t="s">
         <v>70</v>
       </c>
@@ -6283,7 +6458,7 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:11" ht="67.5">
-      <c r="A7" s="80"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
         <v>72</v>
@@ -6307,7 +6482,7 @@
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="80"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9" t="s">
         <v>73</v>
@@ -6331,7 +6506,7 @@
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="80"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="13"/>
@@ -6343,7 +6518,7 @@
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="80"/>
+      <c r="A10" s="81"/>
       <c r="B10" s="8" t="s">
         <v>335</v>
       </c>
@@ -6361,7 +6536,7 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="80"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="13"/>
@@ -6373,7 +6548,7 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="80"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="13"/>
@@ -6385,12 +6560,12 @@
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="80"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="8"/>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="82" t="s">
         <v>198</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -6414,7 +6589,7 @@
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="82"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="8" t="s">
         <v>201</v>
       </c>
@@ -6436,7 +6611,7 @@
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="82"/>
+      <c r="A16" s="83"/>
       <c r="B16" s="8" t="s">
         <v>200</v>
       </c>
@@ -6458,7 +6633,7 @@
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="82"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="8" t="s">
         <v>202</v>
       </c>
@@ -6480,7 +6655,7 @@
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="82"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="8" t="s">
         <v>203</v>
       </c>
@@ -6502,7 +6677,7 @@
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="83"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="8" t="s">
         <v>204</v>
       </c>
@@ -7222,10 +7397,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:R299"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="P272" sqref="P272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7246,6 +7421,26 @@
     <row r="46" spans="18:18">
       <c r="R46" t="s">
         <v>367</v>
+      </c>
+    </row>
+    <row r="263" spans="16:17">
+      <c r="Q263" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="272" spans="16:17">
+      <c r="P272" t="e">
+        <f>len</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q272" t="e">
+        <f>len</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="299" spans="9:9">
+      <c r="I299" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
